--- a/posts/E4-NHLBallots/NHL award ballot HT.xlsx
+++ b/posts/E4-NHLBallots/NHL award ballot HT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/596399e36af48d43/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barrierobison/Documents/GitHub/BCB520/posts/E4-NHLBallots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E46A5D-4D55-4EE3-A85B-CCFC91B2E7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C611D-FF70-DD49-AA41-93A29B1B6B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{8B6743FE-81D9-47B2-B5D7-0022401C69E4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25820" windowHeight="15500" xr2:uid="{8B6743FE-81D9-47B2-B5D7-0022401C69E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>Voter</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Nathan MacKinnon</t>
-  </si>
-  <si>
-    <t>Cole Caufieldn</t>
   </si>
   <si>
     <t>Aliaksei Protas</t>
@@ -522,12 +519,16 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -555,7 +556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -569,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -583,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -597,7 +598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -611,7 +612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -625,7 +626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -639,7 +640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -653,7 +654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -667,7 +668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -681,7 +682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -695,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -709,7 +710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -723,7 +724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -737,7 +738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -751,7 +752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -765,7 +766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -779,7 +780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -793,7 +794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -807,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -821,7 +822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -835,7 +836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -849,7 +850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -863,7 +864,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -877,7 +878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -891,7 +892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -905,7 +906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -919,7 +920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -933,7 +934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -944,10 +945,10 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -958,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
